--- a/biology/Botanique/Smilax_herbacea/Smilax_herbacea.xlsx
+++ b/biology/Botanique/Smilax_herbacea/Smilax_herbacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Smilax herbacea est une espèce de plantes de la famille des Smilacaceae.
 </t>
@@ -513,14 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Tige avec feuilles.
 			Feuilles.
-Smilax herbacea est une plante herbacée grimpante qui peut atteindre 1 à 5 m de haut. Les feuilles altenes et pétiolées, sont longues de 4 à 12 cm puis ovées ou arrondies[1].
-Appareil reproducteur
-			Inflorescence.
-			Fleurs
-Smilax herbacea est considéré comme une plante dioïque : elle comporte des individus mâles-stériles et des individus hermaphrodites. Le fruit est une baie d'un bleu noir mesurant 6 à 8 mm de diamètre[1].
+Smilax herbacea est une plante herbacée grimpante qui peut atteindre 1 à 5 m de haut. Les feuilles altenes et pétiolées, sont longues de 4 à 12 cm puis ovées ou arrondies.
 </t>
         </is>
       </c>
@@ -546,12 +560,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Inflorescence.
+			Fleurs
+Smilax herbacea est considéré comme une plante dioïque : elle comporte des individus mâles-stériles et des individus hermaphrodites. Le fruit est une baie d'un bleu noir mesurant 6 à 8 mm de diamètre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Smilax_herbacea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Smilax_herbacea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Utilisation alimentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On mange les jeunes pousses au Japon[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On mange les jeunes pousses au Japon.
 </t>
         </is>
       </c>
